--- a/src/assets/tc_oldlist.xlsx
+++ b/src/assets/tc_oldlist.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="549">
   <si>
     <t>sqlnav01.aquinos.org : Aquinos, S.A.</t>
   </si>
@@ -1664,7 +1664,13 @@
     <t>Cairo Camel</t>
   </si>
   <si>
-    <t>Folha Comentários : 17/05/2021 18:22:24</t>
+    <t>TECIDO RANSTA RED (TULLSTA)</t>
+  </si>
+  <si>
+    <t>I1009</t>
+  </si>
+  <si>
+    <t>Folha Comentários : 08/11/2021 09:08:13</t>
   </si>
 </sst>
 </file>
@@ -1786,8 +1792,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:C275" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A3:C275"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:C276" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A3:C276"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Data" dataDxfId="2"/>
     <tableColumn id="2" name="Comentário" dataDxfId="1"/>
@@ -2060,7 +2066,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C275"/>
+  <dimension ref="A1:C276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
@@ -2082,7 +2088,7 @@
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4410,46 +4416,46 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="5">
-        <v>40463</v>
+        <v>40359</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>423</v>
+        <v>546</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>424</v>
+        <v>547</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="5">
-        <v>41351</v>
+        <v>40463</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="5">
-        <v>41876</v>
+        <v>41351</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="5">
-        <v>41921</v>
+        <v>41876</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -4457,10 +4463,10 @@
         <v>41921</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -4468,10 +4474,10 @@
         <v>41921</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -4479,21 +4485,21 @@
         <v>41921</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="5">
-        <v>42642</v>
+        <v>41921</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -4501,21 +4507,21 @@
         <v>42642</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="5">
-        <v>42745</v>
+        <v>42642</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -4523,32 +4529,32 @@
         <v>42745</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="5">
-        <v>43390</v>
+        <v>42745</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="5">
-        <v>43136</v>
+        <v>43390</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -4556,10 +4562,10 @@
         <v>43136</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -4567,10 +4573,10 @@
         <v>43136</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -4578,21 +4584,21 @@
         <v>43136</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="5">
-        <v>43158</v>
+        <v>43136</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -4600,10 +4606,10 @@
         <v>43158</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -4611,10 +4617,10 @@
         <v>43158</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -4622,21 +4628,21 @@
         <v>43158</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="5">
-        <v>43209</v>
+        <v>43158</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -4644,21 +4650,21 @@
         <v>43209</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="5">
-        <v>43256</v>
+        <v>43209</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -4666,21 +4672,21 @@
         <v>43256</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="5">
-        <v>43264</v>
+        <v>43256</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -4688,29 +4694,29 @@
         <v>43264</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="5">
-        <v>43273</v>
+        <v>43264</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="5">
-        <v>43697</v>
+        <v>43273</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C241" s="6" t="s">
         <v>476</v>
@@ -4718,13 +4724,13 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="5">
-        <v>43285</v>
+        <v>43697</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -4732,18 +4738,18 @@
         <v>43285</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="5">
-        <v>43530</v>
+        <v>43285</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C244" s="6" t="s">
         <v>481</v>
@@ -4751,13 +4757,13 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="5">
-        <v>43286</v>
+        <v>43530</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -4765,10 +4771,10 @@
         <v>43286</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -4776,10 +4782,10 @@
         <v>43286</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -4787,10 +4793,10 @@
         <v>43286</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -4798,10 +4804,10 @@
         <v>43286</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -4809,21 +4815,21 @@
         <v>43286</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="5">
-        <v>43292</v>
+        <v>43286</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -4831,10 +4837,10 @@
         <v>43292</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -4842,10 +4848,10 @@
         <v>43292</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -4853,54 +4859,54 @@
         <v>43292</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="5">
-        <v>43299</v>
+        <v>43292</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="5">
-        <v>43300</v>
+        <v>43299</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="5">
-        <v>43398</v>
+        <v>43300</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="5">
-        <v>43454</v>
+        <v>43398</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -4908,43 +4914,43 @@
         <v>43454</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="5">
-        <v>43418</v>
+        <v>43454</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="5">
-        <v>43445</v>
+        <v>43418</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="5">
-        <v>43454</v>
+        <v>43445</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -4952,43 +4958,43 @@
         <v>43454</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="5">
-        <v>43518</v>
+        <v>43454</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="5">
-        <v>43525</v>
+        <v>43518</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="5">
-        <v>43486</v>
+        <v>43525</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -4996,10 +5002,10 @@
         <v>43486</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -5007,86 +5013,97 @@
         <v>43486</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="5">
-        <v>43469</v>
+        <v>43486</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="5">
-        <v>43528</v>
+        <v>43469</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="5">
-        <v>43539</v>
+        <v>43528</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="5">
-        <v>43550</v>
+        <v>43539</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="5">
-        <v>43579</v>
+        <v>43550</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="5">
-        <v>43444</v>
+        <v>43579</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="5">
+        <v>43444</v>
+      </c>
+      <c r="B275" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="C275" s="6" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="5">
         <v>43488</v>
       </c>
-      <c r="B275" s="6" t="s">
+      <c r="B276" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="C275" s="6" t="s">
+      <c r="C276" s="6" t="s">
         <v>544</v>
       </c>
     </row>
